--- a/比特直播课/比特直播课讲义/2024_9_18 文件操作.xlsx
+++ b/比特直播课/比特直播课讲义/2024_9_18 文件操作.xlsx
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="U46" sqref="U46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
